--- a/InformePack.xlsx
+++ b/InformePack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>PACK</t>
   </si>
@@ -44,16 +44,13 @@
     <t>Dia de año nuevo</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>$30000</t>
+    <t>$10000</t>
   </si>
   <si>
     <t>Total Cantidad</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Total precio</t>
@@ -148,30 +145,30 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
